--- a/biology/Botanique/Hélianthème_à_feuilles_de_saule/Hélianthème_à_feuilles_de_saule.xlsx
+++ b/biology/Botanique/Hélianthème_à_feuilles_de_saule/Hélianthème_à_feuilles_de_saule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+          <t>Hélianthème_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème à feuilles de saule
 Helianthemum salicifolium, en français Hélianthème à feuilles de saule, est une espèce de plantes à fleurs de la famille des Cistaceae et du genre Helianthemum, originaire d'Europe et de la Région méditerranéenne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+          <t>Hélianthème_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Hélianthème à feuilles de saule est une plante annuelle ou bisannuelle, de 5 à 20 cm de hauteur ; les tiges sont généralement grêles, pouvant être un peu ligneuses, ramifiées et couchées à la base ; les feuilles sont ovales, allongées, munies de stipules courtes ; les feuilles supérieures sont alternes, situées à l'opposée des pédoncules, les inférieures opposées[2].
-Appareil reproducteur
-Les fleurs sont jaune clair, ne s'ouvrant qu'en début de matinée, sans taches foncées sur les sépales ; le calice est à 5 sépales, les deux extérieurs moitié plus courts que les trois autres ; les pétales sont un peu plus courts ou aussi longs que les sépales. Le fruit est une capsule de 4 à 6 cm de longueur, plus courte que le calice. La floraison a lieu de avril à juin[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hélianthème à feuilles de saule est une plante annuelle ou bisannuelle, de 5 à 20 cm de hauteur ; les tiges sont généralement grêles, pouvant être un peu ligneuses, ramifiées et couchées à la base ; les feuilles sont ovales, allongées, munies de stipules courtes ; les feuilles supérieures sont alternes, situées à l'opposée des pédoncules, les inférieures opposées.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+          <t>Hélianthème_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce généralement discrète ; la fermeture des fleurs en cours de journée la rend d'autant moins facile à repérer. Elle est thérophyte ou hémicryptophyte bisannuelle. Elle pousse dans les pelouses sèches de l'étage méditerranéen, dans les rocailles ensoleillées, en milieux calcaires ou siliceux, jusqu'à 700 m d'altitude[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont jaune clair, ne s'ouvrant qu'en début de matinée, sans taches foncées sur les sépales ; le calice est à 5 sépales, les deux extérieurs moitié plus courts que les trois autres ; les pétales sont un peu plus courts ou aussi longs que les sépales. Le fruit est une capsule de 4 à 6 cm de longueur, plus courte que le calice. La floraison a lieu de avril à juin.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+          <t>Hélianthème_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce d'Europe méridionale et centrale, d'Asie occidentale et d'Afrique du Nord. En France, elle est présente dans le midi, dans l'ouest et en Corse. Elle semble avoir disparu dans le Centre de la France et a été introduite au siècle dernier dans les Hauts-de-Seine, mais ne s'y est pas maintenue[2].
-Elle bénéficie également d'un lieu d'implantation totalement isolé sur la Pelouse de Vaux à Tavers, prés de Beaugency, dans le Loiret. Seule présence connue de la fleur dans le département et même dans la Région Centre-Val de Loire, l'origine supposée de son implantation est que le terrain a accueilli d'importantes batailles pendant la Guerre franco-allemande de 1870 et des graines auraient pu voyager avec le foin des chevaux et s'implanter sur ce site, loin de toute autre présence connue[3].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce généralement discrète ; la fermeture des fleurs en cours de journée la rend d'autant moins facile à repérer. Elle est thérophyte ou hémicryptophyte bisannuelle. Elle pousse dans les pelouses sèches de l'étage méditerranéen, dans les rocailles ensoleillées, en milieux calcaires ou siliceux, jusqu'à 700 m d'altitude.
 </t>
         </is>
       </c>
@@ -591,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+          <t>Hélianthème_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,17 +628,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce d'Europe méridionale et centrale, d'Asie occidentale et d'Afrique du Nord. En France, elle est présente dans le midi, dans l'ouest et en Corse. Elle semble avoir disparu dans le Centre de la France et a été introduite au siècle dernier dans les Hauts-de-Seine, mais ne s'y est pas maintenue.
+Elle bénéficie également d'un lieu d'implantation totalement isolé sur la Pelouse de Vaux à Tavers, prés de Beaugency, dans le Loiret. Seule présence connue de la fleur dans le département et même dans la Région Centre-Val de Loire, l'origine supposée de son implantation est que le terrain a accueilli d'importantes batailles pendant la Guerre franco-allemande de 1870 et des graines auraient pu voyager avec le foin des chevaux et s'implanter sur ce site, loin de toute autre présence connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hélianthème_à_feuilles_de_saule</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variétés
-L'espèce possède deux variétés[4],[5] :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce possède deux variétés, :
 Helianthemum salicifolium var. glabrum Meikle
-Helianthemum salicifolium var. securitium Gholamian
-Synonymes
-Selon Catalogue of Life                                   (4 décembre 2020)[5] :
+Helianthemum salicifolium var. securitium Gholamian</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hélianthème_à_feuilles_de_saule</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 décembre 2020) :
 Aphananthemum salicifolium (L.) Fourr.
 Cistus aegyptius Pall. ex M. Bieb.
 Cistus denticulatus Poir.
@@ -651,33 +746,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hélianthème_à_feuilles_de_saule</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%A9lianth%C3%A8me_%C3%A0_feuilles_de_saule</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante à répartition très inégale en France, elle est surtout en régression vers sa limite d'aire (Centre, Rhône...). H. salicifolium est victime de la fermeture des milieux à la suite de l'abandon des pratiques agricoles extensives sur les coteaux calcaires et autres pelouses sèches[2]. L'espèce est classée en danger critique d'extinction (CR) en Centre-Val-de-Loire, Pays-de-la-Loire, et en danger en Poitou-Charentes et Auvergne[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante à répartition très inégale en France, elle est surtout en régression vers sa limite d'aire (Centre, Rhône...). H. salicifolium est victime de la fermeture des milieux à la suite de l'abandon des pratiques agricoles extensives sur les coteaux calcaires et autres pelouses sèches. L'espèce est classée en danger critique d'extinction (CR) en Centre-Val-de-Loire, Pays-de-la-Loire, et en danger en Poitou-Charentes et Auvergne.
 </t>
         </is>
       </c>
